--- a/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/canals_costs_workings.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/canals_costs_workings.xlsx
@@ -724,10 +724,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B5" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>91712.70718232045</v>
+        <v>91712.70718232046</v>
       </c>
       <c r="L5" t="n">
-        <v>91712.70718232045</v>
+        <v>91712.70718232046</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>47368.42105263157</v>
+        <v>47368.42105263158</v>
       </c>
       <c r="L29" t="n">
-        <v>47368.42105263157</v>
+        <v>47368.42105263158</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
